--- a/GraficiRisultati/20_1/5MB/results.xlsx
+++ b/GraficiRisultati/20_1/5MB/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerongeorge/Documents/RomaTre/Tirocinio/TestLaboratorioFUB/GraficiRisultati/20_1/5MB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerongeorge/Progetto/misurainternet-speedtest/GraficiRisultati/20_1/5MB/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,15 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Numero di connessioni</t>
   </si>
   <si>
-    <t>Banda in download</t>
+    <t>Banda in download (Mb/s)</t>
   </si>
   <si>
-    <t>Banda in upload</t>
+    <t>Banda in upload (Mb/s)</t>
+  </si>
+  <si>
+    <t>Tempo totale download (s)</t>
+  </si>
+  <si>
+    <t>Tempo totale upload (s)</t>
   </si>
 </sst>
 </file>
@@ -126,8 +132,22 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Profilo 20/1</a:t>
+              <a:t>Profilo: 20/1</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Dimensione</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> file: 5MB</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -177,7 +197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Banda in download</c:v>
+                  <c:v>Banda in download (Mb/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -238,7 +258,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Banda in upload</c:v>
+                  <c:v>Banda in upload (Mb/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -300,11 +320,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-109891984"/>
-        <c:axId val="-109475968"/>
+        <c:axId val="989531840"/>
+        <c:axId val="1015960528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-109891984"/>
+        <c:axId val="989531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -347,7 +367,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-109475968"/>
+        <c:crossAx val="1015960528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -355,7 +375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-109475968"/>
+        <c:axId val="1015960528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +425,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-109891984"/>
+        <c:crossAx val="989531840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1033,16 +1053,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1327,15 +1347,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1345,8 +1372,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1356,8 +1389,14 @@
       <c r="C2">
         <v>0.89</v>
       </c>
+      <c r="D2">
+        <v>19.154</v>
+      </c>
+      <c r="E2">
+        <v>16.044</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1367,8 +1406,14 @@
       <c r="C3">
         <v>0.83799999999999997</v>
       </c>
+      <c r="D3">
+        <v>19.003</v>
+      </c>
+      <c r="E3">
+        <v>16.027999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1377,6 +1422,12 @@
       </c>
       <c r="C4">
         <v>0.83699999999999997</v>
+      </c>
+      <c r="D4">
+        <v>19.003</v>
+      </c>
+      <c r="E4">
+        <v>37.039000000000001</v>
       </c>
     </row>
   </sheetData>
